--- a/results/mp/tinybert/corona/confidence/84/topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,172 +40,190 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>to</t>
@@ -566,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -727,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,37 +753,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -835,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.92</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -903,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8888888888888888</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7532467532467533</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C10">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8823529411764706</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5333333333333333</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8518518518518519</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3703703703703703</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3684210526315789</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7843137254901961</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3175965665236051</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C16">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,581 +1321,461 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>159</v>
+        <v>341</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L16">
+        <v>78</v>
+      </c>
+      <c r="M16">
+        <v>78</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7125</v>
+      </c>
+      <c r="L19">
+        <v>114</v>
+      </c>
+      <c r="M19">
+        <v>114</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.7112676056338029</v>
+      </c>
+      <c r="L20">
+        <v>101</v>
+      </c>
+      <c r="M20">
+        <v>101</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>41</v>
       </c>
-      <c r="K16">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L16">
-        <v>7</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L24">
+        <v>28</v>
+      </c>
+      <c r="M24">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L25">
+        <v>54</v>
+      </c>
+      <c r="M25">
+        <v>54</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>65</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L18">
-        <v>44</v>
-      </c>
-      <c r="M18">
-        <v>44</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L28">
+        <v>18</v>
+      </c>
+      <c r="M28">
+        <v>18</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1375</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>69</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L19">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>29</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
+      <c r="M29">
+        <v>14</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.4986945169712794</v>
+      </c>
+      <c r="L30">
+        <v>191</v>
+      </c>
+      <c r="M30">
+        <v>191</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L31">
+        <v>160</v>
+      </c>
+      <c r="M31">
+        <v>160</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>0.4680851063829787</v>
+      </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>98</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>121</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L21">
-        <v>49</v>
-      </c>
-      <c r="M21">
-        <v>49</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L23">
-        <v>11</v>
-      </c>
-      <c r="M23">
-        <v>11</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.64</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L25">
-        <v>14</v>
-      </c>
-      <c r="M25">
-        <v>14</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="L26">
-        <v>19</v>
-      </c>
-      <c r="M26">
-        <v>19</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
-      <c r="M27">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28">
-        <v>0.6</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29">
-        <v>11</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30">
-        <v>0.5586854460093896</v>
-      </c>
-      <c r="L30">
-        <v>119</v>
-      </c>
-      <c r="M30">
-        <v>119</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L31">
-        <v>13</v>
-      </c>
-      <c r="M31">
-        <v>13</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32">
-        <v>0.5138888888888888</v>
-      </c>
-      <c r="L32">
-        <v>74</v>
-      </c>
-      <c r="M32">
-        <v>74</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4651162790697674</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1889,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.45</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1915,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1941,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.4285714285714285</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1967,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.4021739130434783</v>
+        <v>0.375</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1993,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.1842105263157895</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2019,33 +1917,319 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39">
+        <v>0.3125</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42">
+        <v>0.2</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43">
+        <v>0.1120689655172414</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K39">
-        <v>0.004009163802978236</v>
-      </c>
-      <c r="L39">
-        <v>7</v>
-      </c>
-      <c r="M39">
-        <v>7</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1739</v>
+      <c r="K44">
+        <v>0.01583333333333333</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <v>0.0144284128745838</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46">
+        <v>0.01317122593718338</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>0.87</v>
+      </c>
+      <c r="O46">
+        <v>0.13</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47">
+        <v>0.008160703075957313</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>0.93</v>
+      </c>
+      <c r="O47">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48">
+        <v>0.005239520958083832</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>15</v>
+      </c>
+      <c r="N48">
+        <v>0.93</v>
+      </c>
+      <c r="O48">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49">
+        <v>0.004404404404404405</v>
+      </c>
+      <c r="L49">
+        <v>22</v>
+      </c>
+      <c r="M49">
+        <v>23</v>
+      </c>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50">
+        <v>0.004159926045759187</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>0.95</v>
+      </c>
+      <c r="O50">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4309</v>
       </c>
     </row>
   </sheetData>
